--- a/biology/Zoologie/Antarctica_(film)/Antarctica_(film).xlsx
+++ b/biology/Zoologie/Antarctica_(film)/Antarctica_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antarctica (南極物語, Nankyoku monogatari?, litt. « histoire au pôle Sud ») est un film japonais réalisé par Koreyoshi Kurahara, sorti en 1983, inspiré d'une histoire vraie.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En février 1958, une équipe de scientifiques japonais en Antarctique doit quitter la base antarctique Shōwa à cause de conditions climatiques extrêmes, et laisser derrière eux quinze chiens de traîneau. Le mauvais temps empêche le débarquement de la seconde équipe, qui devait prendre la relève. Pendant presque un an, les chiens se débrouillent par eux-mêmes pour se nourrir, se mettre au chaud...
 </t>
@@ -542,7 +556,9 @@
           <t>Nom des chiens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiens abandonnés dans l'Antarctique : Goro, Kuma (de Monbetsu), Pesu, Moku, Aka, Kuro, Pochi, Riki, Anko, Shiro, Jack, Deri, Kuma (de Furen), Taro et Jiro (seuls les deux derniers survivent jusqu'au retour des scientifiques).
 Une chienne et ses deux chiots ont été évacués avec les explorateurs.
@@ -575,7 +591,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Antarctica
 Titre original : 南極物語 (Nankyoku monogatari?)
@@ -592,10 +610,10 @@
 Langue originale : japonais
 Format : couleurs (Fuji) - 1,85:1 - son Dolby stéréo - 35 mm
 Genre : aventure
-Durée : 145 minutes[1] (version japonaise)
+Durée : 145 minutes (version japonaise)
 Dates de sortie :
-Japon : 23 juillet 1983[1]
-France : 20 mars 1985[2]</t>
+Japon : 23 juillet 1983
+France : 20 mars 1985</t>
         </is>
       </c>
     </row>
@@ -623,7 +641,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ken Takakura : Ushioda
 Tsunehiko Watase : Ochi
@@ -665,7 +685,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La réalisation du film prit trois ans. Le film a été tourné à la pointe nord d'Hokkaidō. Certaines scènes ont été tournées en Antarctique, lors de l'été 1982, avec des équipes de chiens de la base Scott (Nouvelle-Zélande).
 </t>
@@ -696,9 +718,11 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Outre la musique originale composée et enregistrée par Vangelis, on entend aussi durant le film les morceaux suivants[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Outre la musique originale composée et enregistrée par Vangelis, on entend aussi durant le film les morceaux suivants :
 Ai no ôrora
 Musique de Tetsuji Hayashi
 Texte de Tokiko Iwatani
@@ -738,13 +762,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nominations
-1984 : Aux Japan Academy Prize, Antarctica a été nommé dans les catégories « Meilleur film », « Meilleure photographie », « Meilleur éclairage », et « Meilleure musique ».
-1984 : Au Festival de Berlin, Koreyoshi Kurahara a été nommé à la réalisation pour l'Ours d'or[4].
-Récompenses
-1984 : Aux Japan Academy Prize, les chiens interprétant Jiro et Taro ont été récompensés par le prix de l'acteur le plus populaire.
-1984 : Lors des prix du film Mainichi, Antarctica a reçu le prix de la meilleure photographie (Akira Shiizuka) et le prix du choix du lecteur.
-</t>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1984 : Aux Japan Academy Prize, Antarctica a été nommé dans les catégories « Meilleur film », « Meilleure photographie », « Meilleur éclairage », et « Meilleure musique ».
+1984 : Au Festival de Berlin, Koreyoshi Kurahara a été nommé à la réalisation pour l'Ours d'or.</t>
         </is>
       </c>
     </row>
@@ -769,10 +794,50 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1984 : Aux Japan Academy Prize, les chiens interprétant Jiro et Taro ont été récompensés par le prix de l'acteur le plus populaire.
+1984 : Lors des prix du film Mainichi, Antarctica a reçu le prix de la meilleure photographie (Akira Shiizuka) et le prix du choix du lecteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Antarctica_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antarctica_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ce film est tiré d'une histoire vraie.
 Le film a été distribué dans certains pays dans une version plus courte. Ainsi la version présentée aux États-Unis est écourtée d'une demi-heure, tandis que la version italienne compte cinquante-deux minutes de moins. La version japonaise intégrale, d'une durée de 143 minutes, insiste davantage sur les remords de deux scientifiques. Elle évoque également la stupeur de l'opinion publique japonaise quand les membres de l'expédition sont rentrés sans les chiens, ainsi que l'hommage du Japon aux chiens alors présumés disparus.
